--- a/output/test_export_enhancement.xlsx
+++ b/output/test_export_enhancement.xlsx
@@ -459,7 +459,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
